--- a/suppr-draft-sp-type-orga/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/suppr-draft-sp-type-orga/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T16:52:13+00:00</t>
+    <t>2025-02-17T10:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -926,12 +926,6 @@
   &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R67-TypeStructure-EJ-EG/FHIR/TRE-R67-TypeStructure-EJ-EG"/&gt;
   &lt;code value="EG"/&gt;
 &lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>A code that specifies a type of context being specified by a usage context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
   </si>
   <si>
     <t>Questionnaire.useContext:catEG.value[x]</t>
@@ -5778,11 +5772,9 @@
       <c r="X32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5832,7 +5824,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>277</v>
@@ -5903,7 +5895,7 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -5945,13 +5937,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
@@ -5973,10 +5965,10 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>280</v>
@@ -6010,7 +6002,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6060,13 +6052,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -6091,7 +6083,7 @@
         <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>254</v>
@@ -6181,7 +6173,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>260</v>
@@ -6296,7 +6288,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>264</v>
@@ -6413,7 +6405,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>267</v>
@@ -6459,7 +6451,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6476,11 +6468,9 @@
       <c r="X38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6530,7 +6520,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>277</v>
@@ -6601,7 +6591,7 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
@@ -6643,13 +6633,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
@@ -6671,10 +6661,10 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>280</v>
@@ -6708,7 +6698,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6758,13 +6748,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
@@ -6789,7 +6779,7 @@
         <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>254</v>
@@ -6879,7 +6869,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>260</v>
@@ -6994,7 +6984,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>264</v>
@@ -7111,7 +7101,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>267</v>
@@ -7157,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7174,11 +7164,9 @@
       <c r="X44" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7228,7 +7216,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>277</v>
@@ -7299,7 +7287,7 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7341,13 +7329,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
@@ -7369,10 +7357,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>280</v>
@@ -7406,7 +7394,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7456,13 +7444,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
@@ -7487,7 +7475,7 @@
         <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>254</v>
@@ -7577,7 +7565,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>260</v>
@@ -7692,7 +7680,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>264</v>
@@ -7809,7 +7797,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>267</v>
@@ -7855,7 +7843,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -7872,11 +7860,9 @@
       <c r="X50" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7926,7 +7912,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>277</v>
@@ -7997,7 +7983,7 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
@@ -8039,13 +8025,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>277</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>80</v>
@@ -8067,7 +8053,7 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>279</v>
@@ -8104,7 +8090,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8154,10 +8140,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8180,16 +8166,16 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8218,10 +8204,10 @@
         <v>272</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8239,7 +8225,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8254,7 +8240,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>173</v>
@@ -8266,15 +8252,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8300,13 +8286,13 @@
         <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8356,7 +8342,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8371,13 +8357,13 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>165</v>
@@ -8388,14 +8374,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8417,16 +8403,16 @@
         <v>245</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8475,7 +8461,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8490,7 +8476,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>173</v>
@@ -8507,10 +8493,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8533,16 +8519,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8592,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8607,10 +8593,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8624,10 +8610,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8650,19 +8636,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8711,7 +8697,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8726,10 +8712,10 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8743,10 +8729,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8769,19 +8755,19 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8830,7 +8816,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8842,10 +8828,10 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>173</v>
@@ -8857,15 +8843,15 @@
         <v>165</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8891,16 +8877,16 @@
         <v>268</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>271</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8928,10 +8914,10 @@
         <v>281</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8949,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8967,7 +8953,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8981,10 +8967,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9007,16 +8993,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9066,7 +9052,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9075,16 +9061,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9098,10 +9084,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9213,10 +9199,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9330,14 +9316,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9359,10 +9345,10 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
@@ -9417,7 +9403,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9449,10 +9435,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9478,16 +9464,16 @@
         <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9536,7 +9522,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9554,7 +9540,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9568,10 +9554,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9597,16 +9583,16 @@
         <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9655,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9673,7 +9659,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9687,10 +9673,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9716,16 +9702,16 @@
         <v>268</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9753,10 +9739,10 @@
         <v>281</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9774,7 +9760,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9783,7 +9769,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>100</v>
@@ -9792,7 +9778,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9806,14 +9792,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9835,16 +9821,16 @@
         <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9893,7 +9879,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9911,7 +9897,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9925,10 +9911,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9954,13 +9940,13 @@
         <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10010,7 +9996,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10042,10 +10028,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10071,16 +10057,16 @@
         <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10108,10 +10094,10 @@
         <v>199</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10129,7 +10115,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>87</v>
@@ -10147,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10161,10 +10147,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10187,19 +10173,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10248,7 +10234,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10260,13 +10246,13 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10280,10 +10266,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10395,10 +10381,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10512,14 +10498,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10541,10 +10527,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -10599,7 +10585,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10631,10 +10617,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10660,13 +10646,13 @@
         <v>168</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10716,7 +10702,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>87</v>
@@ -10734,7 +10720,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10748,10 +10734,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10777,13 +10763,13 @@
         <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10812,10 +10798,10 @@
         <v>199</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10833,7 +10819,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10851,7 +10837,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10865,10 +10851,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10891,13 +10877,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10927,37 +10913,37 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>100</v>
@@ -10966,7 +10952,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10980,10 +10966,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11009,13 +10995,13 @@
         <v>110</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11044,11 +11030,11 @@
         <v>199</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11065,7 +11051,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11074,7 +11060,7 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11083,7 +11069,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11097,10 +11083,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11126,20 +11112,20 @@
         <v>206</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q78" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>80</v>
@@ -11184,7 +11170,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11193,7 +11179,7 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
@@ -11202,7 +11188,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11216,10 +11202,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11245,23 +11231,23 @@
         <v>206</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="O79" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q79" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="R79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11305,7 +11291,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11314,7 +11300,7 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
@@ -11323,7 +11309,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11337,10 +11323,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11366,16 +11352,16 @@
         <v>206</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11424,7 +11410,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11433,7 +11419,7 @@
         <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>100</v>
@@ -11442,7 +11428,7 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11456,10 +11442,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11482,16 +11468,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11541,7 +11527,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11550,7 +11536,7 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>100</v>
@@ -11559,7 +11545,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11573,10 +11559,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11599,16 +11585,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11658,7 +11644,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11667,7 +11653,7 @@
         <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>100</v>
@@ -11676,7 +11662,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11690,10 +11676,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11716,16 +11702,16 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11775,7 +11761,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11784,7 +11770,7 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>100</v>
@@ -11793,7 +11779,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11807,10 +11793,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11922,10 +11908,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12039,14 +12025,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12068,10 +12054,10 @@
         <v>135</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>138</v>
@@ -12126,7 +12112,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12158,10 +12144,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12184,16 +12170,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12222,10 +12208,10 @@
         <v>281</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12243,7 +12229,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>87</v>
@@ -12261,7 +12247,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12275,10 +12261,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12304,20 +12290,20 @@
         <v>206</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q88" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>80</v>
@@ -12362,7 +12348,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12380,7 +12366,7 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
@@ -12394,10 +12380,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12420,19 +12406,19 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12481,7 +12467,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12490,7 +12476,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>100</v>
@@ -12499,7 +12485,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12513,10 +12499,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12628,10 +12614,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12745,14 +12731,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12774,10 +12760,10 @@
         <v>135</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>138</v>
@@ -12832,7 +12818,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12864,10 +12850,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12890,16 +12876,16 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12928,10 +12914,10 @@
         <v>281</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -12949,7 +12935,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>87</v>
@@ -12967,7 +12953,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12981,10 +12967,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13010,16 +12996,16 @@
         <v>81</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13068,7 +13054,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13077,7 +13063,7 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>80</v>
@@ -13086,7 +13072,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
